--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3421723.061951675</v>
+        <v>3526662.292127041</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7831661.456698203</v>
+        <v>7847978.903758834</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>299.0513903014185</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>168.5105047440806</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>77.83823869528842</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>67.02802063172339</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>12.87606160420748</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>14.76707050667863</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247588</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>118.0339606675661</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.5822967914823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>14.42881909501569</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6667577510691853</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1345,16 +1347,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>129.0698687939114</v>
       </c>
       <c r="X10" t="n">
-        <v>43.01165385650974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>58.24570521548653</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>32.4720786658923</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>55.30088041042189</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>141.9101287729429</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>6.228861054224671</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>32.57570591154008</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>200.7318143881578</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>80.31960454124662</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>130.4114987159134</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>25.78734729249726</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>59.67415913389193</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>179.7186804608953</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>9.570729811036209</v>
       </c>
       <c r="G31" t="n">
-        <v>50.0620915095756</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3080,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3193,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>112.7304175246786</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>139.7072979240949</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>22.54881804343218</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3475,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>180.6670586121394</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>159.4718642460857</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>28.54004930889236</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>113.8415422301048</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>87.20901510507015</v>
       </c>
       <c r="D46" t="n">
-        <v>103.1686991936193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.601998493312</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.6394815529</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D2" t="n">
-        <v>1236.6394815529</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533245</v>
+        <v>2061.063810001957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.201838557433</v>
+        <v>1670.924478026146</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>957.2304598751764</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>297.8577347903189</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>129.8712700985975</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>129.8712700985975</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1578.073135327672</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1288.970268453316</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>1034.285780247429</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W4" t="n">
-        <v>1034.285780247429</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X4" t="n">
-        <v>806.2962293494114</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="Y4" t="n">
-        <v>806.2962293494114</v>
+        <v>444.7476822882293</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.539111149739</v>
+        <v>1116.060225937134</v>
       </c>
       <c r="C5" t="n">
-        <v>905.5765942093274</v>
+        <v>747.0977089967228</v>
       </c>
       <c r="D5" t="n">
-        <v>905.5765942093274</v>
+        <v>388.8320103899723</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>388.8320103899723</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>381.8865096407688</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>370.2221634054617</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.16301940303202</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450752</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189672</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213861</v>
+        <v>1502.660066001256</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.543854481107</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.09082519998</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387288</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332733</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601583</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927764</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064387</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.82830229719</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199863</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501175</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.8675266085669</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484844</v>
+        <v>1414.636490693548</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610487</v>
+        <v>1414.636490693548</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046005</v>
+        <v>1414.636490693548</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676399</v>
+        <v>1125.219320656588</v>
       </c>
       <c r="X7" t="n">
-        <v>680.6375233676399</v>
+        <v>897.2297697585702</v>
       </c>
       <c r="Y7" t="n">
-        <v>461.8675266085669</v>
+        <v>676.4371906150401</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="T8" t="n">
-        <v>3324.932328931323</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U8" t="n">
-        <v>3071.401852205159</v>
+        <v>3057.500780140567</v>
       </c>
       <c r="V8" t="n">
-        <v>3071.401852205159</v>
+        <v>3057.500780140567</v>
       </c>
       <c r="W8" t="n">
-        <v>2718.633196935045</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.167438673965</v>
+        <v>2331.266366609373</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>608.0847133907091</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4993,19 +4995,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>1575.154327815684</v>
       </c>
       <c r="X10" t="n">
-        <v>828.8772925342392</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y10" t="n">
-        <v>608.0847133907091</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,19 +5117,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516144</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300688</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>376.4492432300688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>417.9651836029414</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>913.2907898187001</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424041</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>378.6527890600109</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>231.7628415621006</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2236.573815415549</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2016.97235043849</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1727.897123782688</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1473.212635576801</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T19" t="n">
-        <v>2190.770766644916</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U19" t="n">
-        <v>1901.695539989114</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.011051783227</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>3355.249510984192</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>3355.249510984192</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.981709809277</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>2877.307316025036</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>3474.685803651587</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>4102.283767206194</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.193497445481</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3192.420589669523</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C22" t="n">
-        <v>3023.484406741616</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1774.701672037622</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1520.017183831735</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1230.600013794774</v>
       </c>
       <c r="X22" t="n">
-        <v>3374.069054499763</v>
+        <v>1002.610462896757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3374.069054499763</v>
+        <v>781.8178837532264</v>
       </c>
     </row>
     <row r="23">
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>429.5088224239596</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1026.887310050512</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1654.485273605118</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2206.395003844405</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3160.179968880559</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C25" t="n">
-        <v>2991.243785952652</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>2841.127146540317</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>2693.214052957923</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2420.915258032283</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2238.060423687188</v>
       </c>
       <c r="T25" t="n">
-        <v>4623.787448650995</v>
+        <v>2018.458958710129</v>
       </c>
       <c r="U25" t="n">
-        <v>4334.712221995193</v>
+        <v>1729.383732054327</v>
       </c>
       <c r="V25" t="n">
-        <v>4080.027733789307</v>
+        <v>1474.69924384844</v>
       </c>
       <c r="W25" t="n">
-        <v>3790.610563752346</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="X25" t="n">
-        <v>3562.621012854329</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y25" t="n">
-        <v>3341.828433710799</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3261.102326342128</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>3092.166143414222</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>2942.049504001886</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>2794.136410419493</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>2647.246462921582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>2480.050363636462</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420636</v>
+        <v>1795.927059842937</v>
       </c>
       <c r="V28" t="n">
-        <v>3999.301626420636</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W28" t="n">
-        <v>3709.884456383676</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X28" t="n">
-        <v>3481.894905485658</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>3261.102326342128</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2367.795837888943</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>961.4446166151475</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>792.5084336872407</v>
       </c>
       <c r="D31" t="n">
-        <v>580.8993044876688</v>
+        <v>642.3917942749049</v>
       </c>
       <c r="E31" t="n">
-        <v>432.9862109052757</v>
+        <v>494.4787006925118</v>
       </c>
       <c r="F31" t="n">
-        <v>286.0962634073653</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
     <row r="32">
@@ -6683,19 +6685,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,28 +6709,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081858</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153951</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741615</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159222</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4576.964043787806</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4357.362578810747</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4068.287352154945</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3813.602863949058</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3524.185693912098</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X34" t="n">
-        <v>3524.185693912098</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3050.708758511721</v>
+        <v>3198.117713678993</v>
       </c>
       <c r="C37" t="n">
-        <v>2881.772575583814</v>
+        <v>3029.181530751086</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583814</v>
+        <v>2879.064891338751</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>2731.151797756358</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>2584.261850258447</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
         <v>2419.773435218391</v>
@@ -7123,22 +7125,22 @@
         <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V37" t="n">
-        <v>3749.763944276939</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W37" t="n">
-        <v>3460.346774239978</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X37" t="n">
-        <v>3232.357223341961</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y37" t="n">
-        <v>3232.357223341961</v>
+        <v>3379.766178509233</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,19 +7256,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1816.378389352846</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1561.693901146959</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1272.276731109998</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.6442739835331</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2351.089047197418</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X43" t="n">
-        <v>1029.292738813773</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.292738813773</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7627,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,49 +7648,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,22 +7727,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D46" t="n">
-        <v>240.7066105458822</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8064,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.9556134883061418</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.580957587066223e-12</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>84.94186588374657</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23422,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>87.17534280744471</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>253.7123957233518</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>110.223257881847</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>39.11615722870167</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>211.1765892730636</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>193.1339494774971</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>85.45266000108637</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>145.3900508477905</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>15.00954930701789</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>40.58789941762443</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>80.62055371233197</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>106.4657939283489</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>135.850318211895</v>
       </c>
       <c r="G31" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.29586847696596</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>142.9753202488367</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>71.47058471168859</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>126.7126101431584</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.4862366927522</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>111.8681131589323</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>80.03780599355768</v>
       </c>
       <c r="D46" t="n">
-        <v>45.44677382459308</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>685898.6756482064</v>
+        <v>694217.3741497055</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>685898.6756482064</v>
+        <v>694217.3741497055</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544277</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544277</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674435.1602544277</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674435.1602544277</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244629</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132557</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132551</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810784</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810798</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
         <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
@@ -26439,25 +26441,25 @@
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756639</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756672</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756608</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756621</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756635</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-765739.2842926315</v>
+        <v>-584952.1925834046</v>
       </c>
       <c r="C6" t="n">
-        <v>563005.4614349622</v>
+        <v>529799.5909925149</v>
       </c>
       <c r="D6" t="n">
-        <v>563005.4614349608</v>
+        <v>370378.3209946235</v>
       </c>
       <c r="E6" t="n">
-        <v>310738.4127252363</v>
+        <v>310738.4127252364</v>
       </c>
       <c r="F6" t="n">
-        <v>636150.8745325918</v>
+        <v>636150.8745325919</v>
       </c>
       <c r="G6" t="n">
         <v>636150.8745325917</v>
       </c>
       <c r="H6" t="n">
-        <v>636150.8745325919</v>
+        <v>636150.8745325918</v>
       </c>
       <c r="I6" t="n">
         <v>636150.8745325916</v>
       </c>
       <c r="J6" t="n">
-        <v>418619.6721353144</v>
+        <v>468545.6967226089</v>
       </c>
       <c r="K6" t="n">
-        <v>636150.8745325916</v>
+        <v>636150.8745325917</v>
       </c>
       <c r="L6" t="n">
+        <v>587856.9045244008</v>
+      </c>
+      <c r="M6" t="n">
+        <v>551095.84659708</v>
+      </c>
+      <c r="N6" t="n">
+        <v>636150.874532592</v>
+      </c>
+      <c r="O6" t="n">
         <v>636150.8745325918</v>
       </c>
-      <c r="M6" t="n">
-        <v>551095.8465970798</v>
-      </c>
-      <c r="N6" t="n">
-        <v>636150.8745325917</v>
-      </c>
-      <c r="O6" t="n">
-        <v>636150.8745325914</v>
-      </c>
       <c r="P6" t="n">
-        <v>636150.8745325914</v>
+        <v>636150.8745325913</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82.87897977084333</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>201.2205959343885</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>26.95835650861214</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>152.5209286444458</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>369.0543084680543</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>50.94284216579183</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>102.7147353296458</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.002356560612498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>94.75894269316015</v>
       </c>
       <c r="T8" t="n">
-        <v>203.251212388551</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>157.4531295426796</v>
       </c>
       <c r="X10" t="n">
-        <v>182.6980015325274</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29746,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29758,10 +29760,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29800,10 +29802,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29815,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29995,13 +29997,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,10 +30036,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30220,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>263.7590256391492</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,22 +32074,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>463.4789474089069</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32312,10 +32314,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>615.1181176946646</v>
       </c>
       <c r="O18" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32554,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>447.1326187913569</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P27" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,16 +33505,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>610.054682604365</v>
+        <v>568.8264345569168</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33746,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>616.375287159485</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33974,10 +33976,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>490.507583235568</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N42" t="n">
-        <v>565.6398038246476</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>173.3851399586646</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>367.8869457703467</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>271.5293621272314</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>132.4173135558158</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>325.6375084345479</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35899,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35960,10 +35962,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>483.7764056113314</v>
       </c>
       <c r="O18" t="n">
-        <v>320.8355783388566</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>313.1582113770266</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>471.5003028244908</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37394,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>473.7790427150405</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>351.9532034556938</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N42" t="n">
-        <v>434.2980917413143</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>31.25110603664623</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3526662.292127041</v>
+        <v>3522566.650622275</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>230.0801159243775</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>168.5105047440806</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>77.83823869528842</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>114.801798374756</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>188.973094015618</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.76707050667863</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>120.3332554667406</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>118.0339606675661</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>191.6864637953674</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>14.42881909501569</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492336</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0698687939114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>32.4720786658923</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>141.9101287729429</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>32.57570591154008</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>200.7318143881578</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>25.78734729249726</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>179.7186804608953</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.570729811036209</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>139.7072979240949</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>22.54881804343218</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>159.4718642460857</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>28.54004930889236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>87.20901510507015</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456097</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1284.324637962024</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="C2" t="n">
-        <v>1284.324637962024</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552734</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570292</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,7 +4327,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1996.49032203308</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1665.427434689509</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056584</v>
+        <v>1312.658779419395</v>
       </c>
       <c r="X2" t="n">
-        <v>2061.063810001957</v>
+        <v>1312.658779419395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1670.924478026146</v>
+        <v>1312.658779419395</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751764</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1675.639966294861</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444.7476822882293</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="C4" t="n">
-        <v>444.7476822882293</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D4" t="n">
-        <v>444.7476822882293</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>444.7476822882293</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>297.8577347903189</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>129.8712700985975</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>129.8712700985975</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1417.901301090326</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1194.922820285062</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>905.8044827888995</v>
       </c>
       <c r="V4" t="n">
-        <v>962.1544032232072</v>
+        <v>905.8044827888995</v>
       </c>
       <c r="W4" t="n">
-        <v>672.7372331862466</v>
+        <v>905.8044827888995</v>
       </c>
       <c r="X4" t="n">
-        <v>444.7476822882293</v>
+        <v>677.8149318908821</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.7476822882293</v>
+        <v>677.8149318908821</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1116.060225937134</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="C5" t="n">
-        <v>747.0977089967228</v>
+        <v>1011.38030311145</v>
       </c>
       <c r="D5" t="n">
-        <v>388.8320103899723</v>
+        <v>653.1146045046996</v>
       </c>
       <c r="E5" t="n">
-        <v>388.8320103899723</v>
+        <v>653.1146045046996</v>
       </c>
       <c r="F5" t="n">
-        <v>381.8865096407688</v>
+        <v>242.1286997150921</v>
       </c>
       <c r="G5" t="n">
-        <v>370.2221634054617</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>66.16301940303202</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W5" t="n">
-        <v>1876.125824262336</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X5" t="n">
-        <v>1502.660066001256</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1502.660066001256</v>
+        <v>1380.342820051862</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429752</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>801.944955774447</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.7887257848004</v>
+        <v>172.7955294637007</v>
       </c>
       <c r="C7" t="n">
-        <v>494.7887257848004</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D7" t="n">
-        <v>494.7887257848004</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1414.636490693548</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1414.636490693548</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1414.636490693548</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W7" t="n">
-        <v>1125.219320656588</v>
+        <v>803.2261243354878</v>
       </c>
       <c r="X7" t="n">
-        <v>897.2297697585702</v>
+        <v>575.2365734374705</v>
       </c>
       <c r="Y7" t="n">
-        <v>676.4371906150401</v>
+        <v>354.4439942939404</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>2085.807325826217</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1716.844808885806</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1358.579110279055</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>972.7908576808111</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3311.03125686673</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3311.03125686673</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3057.500780140567</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3057.500780140567</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2704.732124870452</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2331.266366609373</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.127034633561</v>
+        <v>2472.407165890339</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1705.527932658019</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.154327815684</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.164776917667</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="11">
@@ -5017,67 +5017,67 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>214.9229991561138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1944.661001050011</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,10 +5296,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2236.573815415549</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2016.97235043849</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1727.897123782688</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1473.212635576801</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.79546553984</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3173.601046153952</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>3355.249510984192</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>3355.249510984192</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1774.701672037622</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1520.017183831735</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1230.600013794774</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1002.610462896757</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>781.8178837532264</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2420.915258032283</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2238.060423687188</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2018.458958710129</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1729.383732054327</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1474.69924384844</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1185.282073811479</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1795.927059842937</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1541.24257163705</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1251.82540160009</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>961.4446166151475</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>792.5084336872407</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>642.3917942749049</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>494.4787006925118</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1363.885660588917</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1143.093081445387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3198.117713678993</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3029.181530751086</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2879.064891338751</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2731.151797756358</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2584.261850258447</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3379.766178509233</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3379.766178509233</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>641.8461362382112</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>472.9099533103043</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>322.7933138979686</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1816.378389352846</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1561.693901146959</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1272.276731109998</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.287180211981</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.4946010684509</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7496,16 +7496,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2351.089047197418</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2131.487582220359</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2131.487582220359</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1876.803094014472</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459586</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761984</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9556134883061418</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>294.8344935184737</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>84.94186588374657</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>253.7123957233518</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>39.11615722870167</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>193.1339494774971</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>85.45266000108637</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>40.58789941762443</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>106.4657939283489</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>135.850318211895</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>146.8157004124961</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>142.9753202488367</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>126.7126101431584</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>152.4862366927522</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>80.03780599355768</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674435.1602544277</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674435.1602544277</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544275</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>674435.1602544276</v>
+        <v>674435.1602544277</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403374</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.272725342836127e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,16 +26423,16 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810792</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675663</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
@@ -26441,7 +26441,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
         <v>9337.200356756592</v>
@@ -26450,16 +26450,16 @@
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="N4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-584952.1925834046</v>
+        <v>-584952.1925834048</v>
       </c>
       <c r="C6" t="n">
-        <v>529799.5909925149</v>
+        <v>529799.590992515</v>
       </c>
       <c r="D6" t="n">
-        <v>370378.3209946235</v>
+        <v>370378.3209946236</v>
       </c>
       <c r="E6" t="n">
-        <v>310738.4127252364</v>
+        <v>310391.0334708794</v>
       </c>
       <c r="F6" t="n">
-        <v>636150.8745325919</v>
+        <v>635803.4952782341</v>
       </c>
       <c r="G6" t="n">
-        <v>636150.8745325917</v>
+        <v>635803.4952782346</v>
       </c>
       <c r="H6" t="n">
-        <v>636150.8745325918</v>
+        <v>635803.4952782349</v>
       </c>
       <c r="I6" t="n">
-        <v>636150.8745325916</v>
+        <v>635803.4952782348</v>
       </c>
       <c r="J6" t="n">
-        <v>468545.6967226089</v>
+        <v>468198.3174682521</v>
       </c>
       <c r="K6" t="n">
-        <v>636150.8745325917</v>
+        <v>635803.4952782347</v>
       </c>
       <c r="L6" t="n">
-        <v>587856.9045244008</v>
+        <v>587509.5252700441</v>
       </c>
       <c r="M6" t="n">
-        <v>551095.84659708</v>
+        <v>550748.4673427232</v>
       </c>
       <c r="N6" t="n">
-        <v>636150.874532592</v>
+        <v>635803.4952782345</v>
       </c>
       <c r="O6" t="n">
-        <v>636150.8745325918</v>
+        <v>635803.4952782347</v>
       </c>
       <c r="P6" t="n">
-        <v>636150.8745325913</v>
+        <v>635803.4952782347</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>20.96513420408453</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>201.2205959343885</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>26.95835650861214</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>79.86066198698143</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>222.5746087573359</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>50.94284216579183</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>46.91356563188727</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>102.7147353296458</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>215.189581946344</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>94.75894269316015</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4531295426796</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.841479272852101e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>615.1181176946646</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,25 +32788,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>314.3020503687028</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,13 +33265,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>210.3948924365567</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>568.8264345569168</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33973,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>454.5879800486393</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8869457703467</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34795,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>544.514022642006</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>271.5293621272314</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,10 +35032,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>483.7764056113314</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>171.7058059242583</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>68.26085851453838</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>430.2720547770426</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>311.9917356041949</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3522566.650622275</v>
+        <v>3524327.18092506</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>241.6278186973297</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>230.0801159243775</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>40.0598920894144</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>114.801798374756</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>188.973094015618</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>122.714054666273</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>120.3332554667406</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>85.36610313819152</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>191.6864637953674</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>246.1225519222235</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.75769145492336</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>59.90320919298844</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.146142788179242</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144416</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>18.70843787977349</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881313</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673023</v>
+        <v>265.5657694879909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2320,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>155.1980648094033</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953144</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.07327741456097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>926.0589393552737</v>
+        <v>1158.463096854643</v>
       </c>
       <c r="C2" t="n">
-        <v>926.0589393552737</v>
+        <v>1158.463096854643</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>1158.463096854643</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>772.6748442563987</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>361.6889394667912</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1996.49032203308</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1665.427434689509</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1312.658779419395</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>1312.658779419395</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y2" t="n">
-        <v>1312.658779419395</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118699</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.639966294861</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710447</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>496.1664670606424</v>
+        <v>704.6174692164187</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606424</v>
+        <v>704.6174692164187</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>554.500829804083</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>406.5877362216899</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800313</v>
+        <v>259.6977887237795</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800313</v>
+        <v>91.71132403205806</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>91.71132403205806</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1417.901301090326</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1194.922820285062</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>905.8044827888995</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>905.8044827888995</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>905.8044827888995</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>677.8149318908821</v>
+        <v>886.2659340466585</v>
       </c>
       <c r="Y4" t="n">
-        <v>677.8149318908821</v>
+        <v>886.2659340466585</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1380.342820051862</v>
+        <v>983.6388807631549</v>
       </c>
       <c r="C5" t="n">
-        <v>1011.38030311145</v>
+        <v>983.6388807631549</v>
       </c>
       <c r="D5" t="n">
-        <v>653.1146045046996</v>
+        <v>983.6388807631549</v>
       </c>
       <c r="E5" t="n">
-        <v>653.1146045046996</v>
+        <v>597.8506281649106</v>
       </c>
       <c r="F5" t="n">
-        <v>242.1286997150921</v>
+        <v>590.9051274157072</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>175.200377139996</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583056</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312942</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.342820051862</v>
+        <v>1373.778212738967</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.342820051862</v>
+        <v>983.6388807631549</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380219</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694938</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1800.470091281866</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.7955294637007</v>
+        <v>751.3310369968235</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800312</v>
+        <v>582.3948540689166</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800312</v>
+        <v>432.2782146565809</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800312</v>
+        <v>284.3651210741878</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>137.4751735762774</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372449</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354878</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374705</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.4439942939404</v>
+        <v>932.9795018270632</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2085.807325826217</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C8" t="n">
-        <v>1716.844808885806</v>
+        <v>1137.401303008948</v>
       </c>
       <c r="D8" t="n">
-        <v>1358.579110279055</v>
+        <v>779.1356044021979</v>
       </c>
       <c r="E8" t="n">
-        <v>972.7908576808111</v>
+        <v>779.1356044021979</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>772.1901036529945</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>357.1176534979909</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866151</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.407165890339</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1866.786255974363</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1577.683389100006</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621292</v>
+        <v>1322.998900894119</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251686</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271513</v>
+        <v>805.5921799591413</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0249360836212</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273917</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803941</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245688</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.175106640328</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.55359426688</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876692</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597621</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597621</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597621</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597621</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362709</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>139.234765840793</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
         <v>1859.536823237711</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168591</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
@@ -5761,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,10 +6205,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6217,22 +6217,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6946,19 +6946,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.7309773356195</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184737</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878341</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>72.11969353038639</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>121.5862749664504</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194188</v>
+        <v>20.61870490125324</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>65.54986409392978</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.5113759375338</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544277</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>674435.1602544275</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>674435.1602544277</v>
+        <v>674435.1602544276</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>746610.6047132551</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="L2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
         <v>192627.1404403374</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073562</v>
       </c>
       <c r="F3" t="n">
-        <v>3.272725342836127e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.807406747303588e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.594285531593694e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810792</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675663</v>
+        <v>9337.200356756384</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756468</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756468</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="K4" t="n">
         <v>9337.200356756592</v>
@@ -26450,16 +26450,16 @@
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
+        <v>9337.200356756495</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984473</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26508,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-584952.1925834048</v>
+        <v>-584952.1925834044</v>
       </c>
       <c r="C6" t="n">
-        <v>529799.590992515</v>
+        <v>529799.5909925147</v>
       </c>
       <c r="D6" t="n">
-        <v>370378.3209946236</v>
+        <v>370378.320994624</v>
       </c>
       <c r="E6" t="n">
-        <v>310391.0334708794</v>
+        <v>310703.6747998</v>
       </c>
       <c r="F6" t="n">
-        <v>635803.4952782341</v>
+        <v>636116.1366071566</v>
       </c>
       <c r="G6" t="n">
-        <v>635803.4952782346</v>
+        <v>636116.1366071566</v>
       </c>
       <c r="H6" t="n">
-        <v>635803.4952782349</v>
+        <v>636116.1366071559</v>
       </c>
       <c r="I6" t="n">
-        <v>635803.4952782348</v>
+        <v>636116.1366071557</v>
       </c>
       <c r="J6" t="n">
-        <v>468198.3174682521</v>
+        <v>468510.9587971736</v>
       </c>
       <c r="K6" t="n">
-        <v>635803.4952782347</v>
+        <v>636116.1366071558</v>
       </c>
       <c r="L6" t="n">
-        <v>587509.5252700441</v>
+        <v>587822.1665989652</v>
       </c>
       <c r="M6" t="n">
-        <v>550748.4673427232</v>
+        <v>551061.1086716437</v>
       </c>
       <c r="N6" t="n">
-        <v>635803.4952782345</v>
+        <v>636116.1366071559</v>
       </c>
       <c r="O6" t="n">
-        <v>635803.4952782347</v>
+        <v>636116.136607156</v>
       </c>
       <c r="P6" t="n">
-        <v>635803.4952782347</v>
+        <v>636116.1366071561</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175394</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000391</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,25 +26916,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.242856914492118e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.759258434129486e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.242856914492118e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
         <v>155.7118084757586</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483766</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,25 +27153,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.242856914492118e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9.759258434129486e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.242856914492118e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>169.9198840756243</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>20.96513420408453</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>64.73670311448618</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>79.86066198698143</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>222.5746087573359</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>178.3044978961324</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247044</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>46.91356563188727</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>80.94049690661267</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>215.189581946344</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>48.48521246509699</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>159.6457400831808</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28095,19 +28095,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-7.640478571046109e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>8.841479272852101e-13</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.947703811770905e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.30021153486216e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-9.759258434129484e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-2.633038117228201e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-8.358865748732604e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-5.86741080007012e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.789547823101709e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543335</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>181.9330708814842</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32104,7 +32104,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32244,7 +32244,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159428</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>618.3047484269334</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>544.514022642006</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.914843031319</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378503</v>
@@ -35032,7 +35032,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>35.97859357997449</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295337</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712518</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35892,7 +35892,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>479.7503686470593</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
